--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06a2209554685db7/Documents/Golf/R2S/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_C1A605822A065BE088021953D9C980910F0AB061" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A16F754-597C-4658-90E5-003799B05D37}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="11_C1A605822A065BE088021953D9C980910F0AB061" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF8154B0-30C5-404A-A659-629C84144D1C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spelschema" sheetId="1" r:id="rId1"/>
     <sheet name="Leaderboard" sheetId="2" r:id="rId2"/>
-    <sheet name="Böteskassa" sheetId="3" r:id="rId3"/>
-    <sheet name="Vinster" sheetId="4" r:id="rId4"/>
+    <sheet name="Leaderboard Utveckling" sheetId="5" r:id="rId3"/>
+    <sheet name="Böteskassa" sheetId="3" r:id="rId4"/>
+    <sheet name="Vinster" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="70">
   <si>
     <t>Namn</t>
   </si>
@@ -209,6 +210,30 @@
   </si>
   <si>
     <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAOEAAADhCAMAAAAJbSJIAAABAlBMVEX///8Ad7pNr0cAAADz8/P+/v8AdLns8/gAfb1QsEpYWFZycnHy+fyTz486jsUeHhw5pjJHrEHw9/DNzc0hIR/Y2NjGxsYmJiWqqqkaGhj39/e2trXv7+/l5eXR0dHf398LCwgUFBI/PzxpaWkzMzHAwMBQUE+WlpVjY2IAcLdTU1I2NjRGRkSioqGAgH+5ubmLi4qGyILq9ultvmgAabPW7NW837p7wXfM58qu2ayPj46fzOVYo9CRxOFKmcuAtdkZiMNln8SMts+uydi/0tzQ3OJ1o8ehv9NhmcOyxdHm4t+XtcoikMeu1evK5PG1zdzG3+6e0puz3LFprdVwvmwupCUwvYCXAAAQUklEQVR4nO2dC1ubSBeAUZhUkyoqtzCBARLIPdG22m5tvdRuL7vbduvufv//r3znDJCQmChqALPL6e4TIcDwcuZc5pJBEEop5d8npFgpGv/fIOR5wZIx3/N373eLlfOzZ1kCPjs/7lWKld7xeYaIzy+ON4qX47PM3A15dlkpGg+k8u1ZZojPtp4E4VZ21bQkzEdKwpKwJCxeSsKSsCQsXkrCkrAkLF5KwpKwJCxeSsKSsCQsXkrCkrBYwnBs4t9K2Ov1Nra4VHq9WwpaU0JQ3PmHz1cff/306c+PVx8+7G4sLWodCSsbW+dXH21KaVQQlT59udjdWFxf15Cwd/n54yc6XxhAfl1Y3toRVjY+/2otLI7aX74uUOO6EfYuf7OXFkiVPzZ6601YqXzVbtTPhFjab7vziGtFCDV0uQJDRMv5Ooe4VoRbV4stMEFoU/ZhfQnvBhQkRbK1zzPFrhFh5eJOQEFwbKyoyXLXh7D39Q4bRKHMovT333YTBa8NYeVSS1EkVSSBOL9/ScTF9SH847YwMRHbIrbjSB+mDnVdCHtfUxghCKHUsSyJTYteE8LK5a/pyrR1akmCpf+xdoQf0qlQkBglRHB0feJs1oOwsvUxlRVCLbUlAUIi067WjHD3U9pCqSQ4ju3Yv8XTBteE8EpKW6jtCLZNNU35ulaEGx9TF2prhNqCojifsSnS6/WOK2tAeI9KKkgapbalM+cLNBW3LkG+rQPhh9SVFAIiRAxdZ5ry7vuPZxlPZF8d4eeUnhQEAr4daAoYYnxOhr+5WB3hRXpCR5esAMIFYxbJFk9YIeHWVeoyieMIkm6zgGkpc4THyOoIv6Quk1gW2KGClmhl/5Og1RGmDxbIyABP1xV7nQjT69CyLIALHKZra6XD1IRWwKCO2oGtMC1Fl8BjZXU5zVVaX6qDJ9UdCwwRfGmmcFxWGA9/T4mo2IKlQBVFT5M+S3iwrJDQtlIhEptSTdcD9KW3do6vSFZH+PWT5aTwG9RhloahAh2Ns1aEW39aKW6YOAGzFMBTbEXRcggWq2w9ffk9hWeUFJ1ShdkKqFHJw5WusgX84VMKQ8TOUkfX0AjzMcOV9tP8SiHhvEssWwuQDpV499ErkFX2l0JEdG4NcBK4WxvhdKZA4ymPaLja3sTdT9OJCYsEPAxz9IA5AdAxjaUZAnhShBu9q9vjBQs0yYEwAe4UAqKm5BDuV0pY6W29k2z7Fi0yjVAGgFBP0dPkYoWrI9zqbfz94znUUm1RJiZJVCCSY0GsDwWcqZLTahGrIjw+/0kEIkC8sBzLntUj0YLA4ZlaoCtMDzQNa2kubmZVhJXK5bvnYX+Lo1FiY5uB0omOpEOou06gOxoaoe5gP5ueR7BfFSHwXTyL+5PCWkqopTCHUKydOE0IB351m0IEdBSdtyrSpLBPhbCy9f5n4oI0DImSRS3IQSFtIZbj2LaGMZCHQg325gj4aMJKZffdbH81BX8KqrRxKNvCcUIl4HCoO81R4L9cAR9L2Nu6+DF/t9TRJFtDx8lsS7KZzmxMZDTsusB2U5BH/9OKCHu99z8X9MlDvYTWAwR3pmFTXmGYaEOapvAwGOTRsF8NYa/37fuSMQcIDRpgMdsJFQhbwOjwjotcFfgYwh4YoLC8R56G2sNGBGiOaxE3862gXB5IWKmcn90xZiQ5GmgucqAKfjLHzqNBOCcPIaxAgHiXYsCPWrbjMAWbEWCLN/EODl6CHBxkAjaR+xNWepcX35+lHDEiFKI+SiLFQXl5cvLLX2+vd168eLHz9vVJlpD3JKyA+Z2h/3zEKmsvf/nr+sU/25ub+5FsvrrOEPE+hIAH+Qsfs703X3TCwcnbnX9ebYdgE9nfv14xVkLSE/aOt76dPWpI+uXrnVfbmzNsMeJ2dkpMSVjpbZyf/XhEOaC8N5t7C+CeACH+aOny/dmPhxvfwcEvO6829/Y2t7cXAxZHWMGfuFyeX3z/8SDb43Lw8pfrV1g1l+IVRBj+4Azo3v2MIt9DAMFt7rziXuUWvAIIK/wnZ5fvL77//BF5lgfgvTx5ff1me5FfKZSw0js+rmztvgfVPWYqD6d7lRIvJ0JcnxHgLs//PvsOIe85Qb09zPJO/gK61HDZE0IjAde+3Po2o7cH071F1e3dZXd5Ej5///fZu+8/khXyQXSQRIPPBDaMebe5zdwJZ+RBi/pCC+Hk9dsXQLc0oBdL+IgUGtnCLHr/4XD56jC9INvrtztvwjzzvmb3xAmxTl5P2Tbvb3VPlxAbdjtv/pmyrUwKJkQ3+Tpss27ur5qtSMLQ1IAMmgX/2wNHuXqw3AkPwq6hEIzXxr29vTC+ba/A2IoiBKgTFMTaeQEOBGH2eXDb38yeLXvCA3AdoK3t/aRshmjZk+VCiF0LwJSllRVMuF0sWyglYUlYEhYvJWFJWBIWLyVhSVgSFi8lYUlYEhYvJWFJWBIWLyVhSVgSFi8lYUn4Hyd88wQIt/dfZTh++Hpvf7to2d/7KztA4eB6r3DZz3ImO8jJ9U6xcn2SKV8ppZRSSinFS+6/mHy4kNtmCN8yz/Y2RL0pulW+hIlUE0XRq88dbXdhr9vI4TERmwWNOshhoGgLfuhJpSU//qQMzlm+PIIvmp5Yw3OB0PTU+tz3dss1TSMHQrveHcgiiiv7za42W6KkBPXTurToLkijCZppsWUXFk1Z9vqccOzKpnGT0JPlHAidmux6pqyqqiybpquyZIlECHxfFVsLVzjUB66smvDlkiu7ACB2CyeEwk1g81xXdF3Xc5sztY4IDdCEWFtEKNVcGcT0Gkvs9BSqhXkYFVIcYTCAumSKcncMUh2Kw+SKAIQKdVFWgZDepNCbngznqqCmme9I7LUk1miEC3rNE4aH5ENIOwhodKS45PklDwIkHC9aCKFuyqZqmqpnJEx3sTpnCeND8iHEslV3vORb5bSDd+ENTzudw7nv4P5Utwpfq2InQUgdvdHpdEZgnHX4PLXjUiaEhNoBftVoVPMgtKBs2T26UUq4PQJLQlvz4LM7FzJ031PFI90zVbcdn021UXegoltuQhzkf4TxMEFIWK3pcc+Nvi0fHcrenDukWqN+yDihKXMxZbc2a2y0A1boBraPDjNemUwbgrMywTF7LdDd0FTVm4QNX0TXjS7KzIMQbxQKPwo9QlSW1nY9cQj3VvebPrfTZtMfzyckruoa1AKHqoqjkFrQIa5DlQC/PIZnhp7oBqFjYIgB143PIg9CeKRcRe3xSLEiRgIRAkJEB5c01jpop11FY3O5i66CXrtwrGvKXjt6PodotMbpoaLgKjsLCceiCmG31VAUfdQ08yC0WiKvMZ46qJ4yDkjqsAtsjBfd4NHihi+lpyLcfkMQGHDIshIRQmx1+3ECdJOQCJIBHtgb8fiaV06jDWNj81z/iBtkQ/TAuYz4bxFDwhsR34Lb9zw4Gqup7B1NCcU+ocsIQfWYyVXD5ejyIhSkU8PzuE1ACjbEwq2jgT8Yh0vCLyHUwce6Ldxbh1O9qpQgFG4hrHvouqV8CcH6O92mjFkkuMUar2OSFaUAywhboDmRh0hlCCB+IyXhKbreKDDmSIhLp45qTUwzTVOZzbwXE0rgX0xZd0AUjNvemKYjHBdFKODqm1VXnk1QlhESzFbhlvtVFJ+blvb0CcHnDDAFq82yLNZhlevb44IWzKtpGsKjIgkpqYqQhLSS+xYSEkHDTMacCPph8B5pCEdI2AkPyIswbOvwf31IFVPokAgdVKErxoLVtK2lImygL61Z+RJO/grAeWAGRohTHzWcGcKZ9qEEGZtsjqbnwZaK7eC7CR3QuGfomNjm1D4UWGfUOFRwTdGRx6selM4GqBiNKzbArGzI6HQxK+zZAE/qB/ElrDYAu2NpOSHF/F7GFIJbsDdsWJIk6f1cCEeu6HoGRHiVpzbY64JZmxo6VSLYMm8gHp2OJu0Pgtm6143XySU81/QwU19KiGHQxYiCLWr4U67WahCDQfzDzNsWPF9Dl4gZsdhWZvNSIrREntCJbSe+FbuLyj6dvukngOxcdhuoQ0jTE4Rq3LCqG3CNZgAVmY5FPBu7hfjnQMmYUBqL0IwJxRWNMc+9D3GXGHXgal0RDxCbk064Qx92GNM2P6GGCAdAeg4JLTykmHCAVwkJoT3mun1er62OL7pxgWK/nvV6u0QbHXX7A1lVjX5tFL29xzodqP441pFdbw1Vv1qLayWoXVXN7nQxZ6imHrTXfVs4NFXDrcaEQ9OIWsACGbndw6izmWr1VttQVb9f67A8VhrE1XAtFGna7Uthc1o0kWa/5YfP9BFTfgESfcZ7o53h31qiAUbCEqVlfekrFxL17iWztdk+s9nN+YPjXYnPmZ1xKYtOKKWUUv4D8iSs/UncxNqKVW1Xi5d2a+EA7GoIxSchXnavmJNqT0FaCwfvVoX4JKSAVbBLKaWUUkq5p1D+do3pGK/FYGvaR6GxpDMn4as4eDueMhZ+RK+f1lgicFuTndEOh+GZk6Y+CbfzeMuj3RmqOE7fiQfxxwN/4Ffr4SYRqv1EXxGpDw2/OcBOVewnrWL/wGHcpdNtTm4Xe5LDh1QbRNdt+c12u9k8ip4d7Q6a7eGg3cn8xUjW2B3z92xo4Z041UEdtsZmPPug2k4QMrerT3RoDbHjUB/Uopvs+gnCekyoRruMNmNMaRhRlz41Wgps19WjrF/LohtHM/15I5GPydOqH80+mCFsiMF0g+tQacaASwiNaI8fDvmMzLBXkhrhIPPpMOOX6JGOwWaGJFrD8Dbrnh72CM8Q1sXEXEur3RecZmtSze4g7PL9ishrOBLyQdXGYOnszdUIPRrOGILdjkbXFD5T4SZh4olbwy41utPTU+nw1Aj3AyH/qFUzNkQ6RgBi2Xb4lht7GI2uaeFg8A3CBr5AJpxfZLXb3eT93UFYtTWNnbqjsF8R7BCuw8Y3Zg6vWkJCq9ZsDjiI3b6DEBzgcBhOQrX6qtxJXOt2woEJZ/riIHok1DfgQr7X1DPuwwgJqRLURF703TpkCvyLdFjtGI1pQLtDh32NKXqjOfWl4Fv1w1Y7czuMJgWP3JDwPnbY7tKaH0x0kCAUltphQ9RjX8q3Nb+TbdAnI1Xh44SdkFBqNcNV2etukCQk8X3P+NKq4HQHSrzd9aeXBZJwXm0r4UsJoYITzVNAX4od+1Z/nHFao/vhs+yIoapGkZa6chQPh+2EM0HCic54PHSqUAnCXdVkLVUMbqLOsB1+G+swiEbtqMFnigmOnzWhNBa7DOf9iNFUrKFZh81WWEnh/yPxCCcG2UsIBTZsRtX4dHokaKsmjhxHr4pBRGj04Sunbg7DB0LVlgbbQdOYn3y8esTO0HVVbxglooLTMkxZHk7mIdAxzgh12yFhcsqU1e/jhtKMZr/HR4YZhD3G67Qb8dFdwzRNz4h/ngFJE44tq93MAfFe8CWoibfXMnxJ4XSTsAAktDa7kXA7VA93skacWsKRejCxS7zO9HBbwWKmZgxtC9ih5fuyQC5k5mNVl1u+I5cufXJzBHT+a7IIPNo5NyY6szV/FbJ0u5RSSimllFJKKeU/Jf8H5jdpGWn6mwkAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>Spelare</t>
+  </si>
+  <si>
+    <t>Deltävling</t>
+  </si>
+  <si>
+    <t>Deltävling 1</t>
+  </si>
+  <si>
+    <t>Deltävling 2</t>
+  </si>
+  <si>
+    <t>Deltävling 3</t>
+  </si>
+  <si>
+    <t>Dempa</t>
+  </si>
+  <si>
+    <t>https://scontent-arn2-1.xx.fbcdn.net/v/t31.18172-8/289992_327758097305116_1434745224_o.jpg?_nc_cat=109&amp;ccb=1-7&amp;_nc_sid=5f2048&amp;_nc_ohc=rd6JEllRr2UAX89sqwh&amp;_nc_ht=scontent-arn2-1.xx&amp;cb_e2o_trans=q&amp;oh=00_AfAIEQdFV33zK2qkeNYOLw7erpCeQ2zMPbZjMsrQaImenQ&amp;oe=663248F7</t>
+  </si>
+  <si>
+    <t>Rantzow</t>
   </si>
 </sst>
 </file>
@@ -738,10 +763,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -806,7 +831,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -934,6 +959,23 @@
         <v>0</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>0</v>
       </c>
     </row>
@@ -943,6 +985,365 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3ACE20E-E96F-4965-B066-513BB72CECDE}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -978,7 +1379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
